--- a/record.xlsx
+++ b/record.xlsx
@@ -2,14 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="345" yWindow="345" windowWidth="2385" windowHeight="570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -18,9 +24,442 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="107">
+  <si>
+    <t>中国分20块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区块索引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>层级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影像来源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切片格式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4326/3857</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谷歌/bing/……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10/11/12/13/14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片格式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>png/jpg/jpeg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谷歌影像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5（11~14级总共352930张）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0/1/2   （分别是未下载/进行中/已完成）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2（有空的话，再去找那空的5张瓦片）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1还在卢鹏电脑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙江</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>94万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓦片数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>层级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载失败数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国分20块区块数量参考</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10级下正确区块数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11级下正确区块数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12级下正确区块数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13级下正确区块数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14级下正确区块数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10至14级一共瓦片数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谷歌卫星。Cn域名，但是去掉参数“gl=cn”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1(正在压缩)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否已下载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35617（重新打开任务
+后显示错了8张，但需验证。）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国分4块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区块索引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前瓦片数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域索引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>层级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>求和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完整瓦片数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国领土四等分切片数量表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙江切片数量表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>层级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切片数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>求和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1602万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切片数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>省份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甘肃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台湾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宁夏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矩形包围框（Bbox）面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行政面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙江</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目需求各省面积表（万平方公里）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>41.5291 （主岛bbox 9.0926）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福建切片数量表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1870万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台湾切片数量表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甘肃切片数量表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宁夏切片数量表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>517万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1亿4496万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1239万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空间分辨率（m/pixel）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1亿9726万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国分四块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（修整过程记录表）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前区块数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>765万</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第四次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国第2_4区块瓦片状况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>颜色解释：红色代表圆满完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺失百分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺失数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载信息记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谷歌卫星、无偏移。</t>
+  </si>
+  <si>
+    <t>图源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>压缩率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>省份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遗忘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓦片数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙江</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台湾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宁夏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谷歌卫星、无偏移。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jpg90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,18 +467,110 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -49,14 +580,111 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -68,6 +696,66 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3" descr="https://img-blog.csdnimg.cn/20190301111203497.png?x-oss-process=image/watermark,type_ZmFuZ3poZW5naGVpdGk,shadow_10,text_aHR0cHM6Ly9ibG9nLmNzZG4ubmV0L3p5MzMyNzE5Nzk0,size_16,color_FFFFFF,t_70"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2486025" y="22860000"/>
+          <a:ext cx="5486400" cy="4524375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -76,7 +764,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CAEACE"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -331,12 +1019,1536 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:T122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="E95" sqref="E95"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="23.625" customWidth="1"/>
+    <col min="3" max="3" width="13.625" customWidth="1"/>
+    <col min="4" max="4" width="23.75" customWidth="1"/>
+    <col min="5" max="5" width="34.125" customWidth="1"/>
+    <col min="6" max="6" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="28.25" customWidth="1"/>
+    <col min="8" max="8" width="40.875" customWidth="1"/>
+    <col min="12" max="12" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5" customWidth="1"/>
+    <col min="15" max="15" width="11.875" customWidth="1"/>
+    <col min="17" max="17" width="15.625" customWidth="1"/>
+    <col min="19" max="19" width="11.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>82</v>
+      </c>
+      <c r="L1" t="s">
+        <v>72</v>
+      </c>
+      <c r="N1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="M2" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="T2" s="14"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="N3" t="s">
+        <v>75</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="P3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q3" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="R3" t="s">
+        <v>75</v>
+      </c>
+      <c r="S3" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="T3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <f>A4</f>
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="S4" s="9"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>2</v>
+      </c>
+      <c r="M5" s="9">
+        <v>1070976</v>
+      </c>
+      <c r="N5">
+        <f>M5/I78</f>
+        <v>0.63281792870682441</v>
+      </c>
+      <c r="O5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="S5" s="9"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>3</v>
+      </c>
+      <c r="M6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="S6" s="9"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="C7" s="3">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7">
+        <v>3857</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7">
+        <v>4</v>
+      </c>
+      <c r="M7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="S7" s="9"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="C8" s="6"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3">
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="C10" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="C11" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="C12" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="3">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13">
+        <v>3857</v>
+      </c>
+      <c r="G13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0</v>
+      </c>
+      <c r="C14" s="5">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14">
+        <v>3857</v>
+      </c>
+      <c r="G14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L14" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="C15" s="3">
+        <v>12</v>
+      </c>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="C16" s="3">
+        <v>13</v>
+      </c>
+      <c r="L16" t="s">
+        <v>42</v>
+      </c>
+      <c r="M16" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="N16" t="s">
+        <v>75</v>
+      </c>
+      <c r="O16" t="s">
+        <v>84</v>
+      </c>
+      <c r="P16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="C17" s="3">
+        <v>14</v>
+      </c>
+      <c r="L17">
+        <v>10</v>
+      </c>
+      <c r="M17">
+        <v>5104</v>
+      </c>
+      <c r="N17" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="L18">
+        <v>11</v>
+      </c>
+      <c r="M18">
+        <v>19950</v>
+      </c>
+      <c r="N18" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="L19">
+        <v>12</v>
+      </c>
+      <c r="M19">
+        <v>65878</v>
+      </c>
+      <c r="N19">
+        <f>M19/F78</f>
+        <v>0.82790428794048154</v>
+      </c>
+      <c r="O19">
+        <f>F$78-M19</f>
+        <v>13694</v>
+      </c>
+      <c r="P19">
+        <f>1-N19</f>
+        <v>0.17209571205951846</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="L20">
+        <v>13</v>
+      </c>
+      <c r="M20">
+        <v>235296</v>
+      </c>
+      <c r="N20">
+        <f>M20/G78</f>
+        <v>0.74031563845050219</v>
+      </c>
+      <c r="O20">
+        <f>G78-M20</f>
+        <v>82536</v>
+      </c>
+      <c r="P20">
+        <f>1-N20</f>
+        <v>0.25968436154949781</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="L21">
+        <v>14</v>
+      </c>
+      <c r="M21">
+        <v>744748</v>
+      </c>
+      <c r="N21">
+        <f>M21/H78</f>
+        <v>0.58644622476443653</v>
+      </c>
+      <c r="O21">
+        <f>H78-M21</f>
+        <v>525186</v>
+      </c>
+      <c r="P21">
+        <f>1-N21</f>
+        <v>0.41355377523556347</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="C23" s="3">
+        <v>20</v>
+      </c>
+      <c r="E23" t="s">
+        <v>37</v>
+      </c>
+      <c r="H23" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" t="s">
+        <v>22</v>
+      </c>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+    </row>
+    <row r="27" spans="1:16" ht="47.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>15</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>16</v>
+      </c>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>17</v>
+      </c>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>18</v>
+      </c>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="11"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" t="s">
+        <v>26</v>
+      </c>
+      <c r="D42" t="s">
+        <v>27</v>
+      </c>
+      <c r="E42" t="s">
+        <v>28</v>
+      </c>
+      <c r="F42" t="s">
+        <v>29</v>
+      </c>
+      <c r="G42" t="s">
+        <v>30</v>
+      </c>
+      <c r="H42" t="s">
+        <v>31</v>
+      </c>
+      <c r="I42" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43" s="12">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>1008</v>
+      </c>
+      <c r="E43">
+        <v>3905</v>
+      </c>
+      <c r="F43">
+        <v>15510</v>
+      </c>
+      <c r="G43">
+        <v>61320</v>
+      </c>
+      <c r="H43">
+        <v>244404</v>
+      </c>
+      <c r="I43">
+        <f>SUM(D43:H43)</f>
+        <v>326147</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>2</v>
+      </c>
+      <c r="B44" s="12"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>3</v>
+      </c>
+      <c r="B45" s="12"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>4</v>
+      </c>
+      <c r="B46" s="12"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>5</v>
+      </c>
+      <c r="B47" s="12"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>6</v>
+      </c>
+      <c r="B48" s="12">
+        <v>2</v>
+      </c>
+      <c r="D48">
+        <v>1116</v>
+      </c>
+      <c r="E48">
+        <v>4260</v>
+      </c>
+      <c r="F48">
+        <v>16779</v>
+      </c>
+      <c r="G48">
+        <v>66640</v>
+      </c>
+      <c r="H48">
+        <v>264492</v>
+      </c>
+      <c r="I48">
+        <f>SUM(D48:H48)</f>
+        <v>353287</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>7</v>
+      </c>
+      <c r="B49" s="12"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>8</v>
+      </c>
+      <c r="B50" s="12"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>9</v>
+      </c>
+      <c r="B51" s="12"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>10</v>
+      </c>
+      <c r="B52" s="12"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>11</v>
+      </c>
+      <c r="B53" s="12">
+        <v>3</v>
+      </c>
+      <c r="D53">
+        <v>1224</v>
+      </c>
+      <c r="E53">
+        <v>4757</v>
+      </c>
+      <c r="F53">
+        <v>18753</v>
+      </c>
+      <c r="G53">
+        <v>74200</v>
+      </c>
+      <c r="H53">
+        <v>295740</v>
+      </c>
+      <c r="I53">
+        <f>SUM(D53:H53)</f>
+        <v>394674</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>12</v>
+      </c>
+      <c r="B54" s="12"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>13</v>
+      </c>
+      <c r="B55" s="12"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>14</v>
+      </c>
+      <c r="B56" s="12"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>15</v>
+      </c>
+      <c r="B57" s="12"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>16</v>
+      </c>
+      <c r="B58" s="12">
+        <v>4</v>
+      </c>
+      <c r="D58">
+        <v>1440</v>
+      </c>
+      <c r="E58">
+        <v>5609</v>
+      </c>
+      <c r="F58">
+        <v>21996</v>
+      </c>
+      <c r="G58">
+        <v>86800</v>
+      </c>
+      <c r="H58">
+        <v>345402</v>
+      </c>
+      <c r="I58">
+        <f>SUM(D58:H58)</f>
+        <v>461247</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>17</v>
+      </c>
+      <c r="B59" s="12"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>18</v>
+      </c>
+      <c r="B60" s="12"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>19</v>
+      </c>
+      <c r="B61" s="12"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>20</v>
+      </c>
+      <c r="B62" s="12"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>39</v>
+      </c>
+      <c r="B67" t="s">
+        <v>40</v>
+      </c>
+      <c r="C67" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E73" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F73" s="12"/>
+      <c r="G73" s="12"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E74" s="12"/>
+      <c r="F74" s="12"/>
+      <c r="G74" s="12"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B75" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D75" s="8">
+        <v>10</v>
+      </c>
+      <c r="E75" s="8">
+        <v>11</v>
+      </c>
+      <c r="F75" s="8">
+        <v>12</v>
+      </c>
+      <c r="G75" s="8">
+        <v>13</v>
+      </c>
+      <c r="H75" s="8">
+        <v>14</v>
+      </c>
+      <c r="I75" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B76" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="8"/>
+      <c r="I76" s="8"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B77" s="8">
+        <v>1</v>
+      </c>
+      <c r="C77" s="8"/>
+      <c r="D77" s="8">
+        <v>5104</v>
+      </c>
+      <c r="E77" s="8">
+        <v>19950</v>
+      </c>
+      <c r="F77" s="8">
+        <v>79800</v>
+      </c>
+      <c r="G77" s="8">
+        <v>318288</v>
+      </c>
+      <c r="H77" s="8">
+        <v>1269934</v>
+      </c>
+      <c r="I77" s="8">
+        <f>SUM(D77:H77)</f>
+        <v>1693076</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B78" s="8">
+        <v>2</v>
+      </c>
+      <c r="C78" s="8"/>
+      <c r="D78" s="8">
+        <v>5104</v>
+      </c>
+      <c r="E78" s="8">
+        <v>19950</v>
+      </c>
+      <c r="F78" s="8">
+        <v>79572</v>
+      </c>
+      <c r="G78" s="8">
+        <v>317832</v>
+      </c>
+      <c r="H78" s="8">
+        <v>1269934</v>
+      </c>
+      <c r="I78" s="8">
+        <f>SUM(D78:H78)</f>
+        <v>1692392</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B79" s="8">
+        <v>3</v>
+      </c>
+      <c r="C79" s="8"/>
+      <c r="D79" s="8">
+        <v>6424</v>
+      </c>
+      <c r="E79" s="8">
+        <v>25375</v>
+      </c>
+      <c r="F79" s="8">
+        <v>100800</v>
+      </c>
+      <c r="G79" s="8">
+        <v>400652</v>
+      </c>
+      <c r="H79" s="8">
+        <v>1600312</v>
+      </c>
+      <c r="I79" s="8">
+        <f>SUM(D79:H79)</f>
+        <v>2133563</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B80" s="8">
+        <v>4</v>
+      </c>
+      <c r="C80" s="8"/>
+      <c r="D80" s="8">
+        <v>6424</v>
+      </c>
+      <c r="E80" s="8">
+        <v>25375</v>
+      </c>
+      <c r="F80" s="8">
+        <v>100512</v>
+      </c>
+      <c r="G80" s="8">
+        <v>400078</v>
+      </c>
+      <c r="H80" s="8">
+        <v>1600312</v>
+      </c>
+      <c r="I80" s="8">
+        <f>SUM(D80:H80)</f>
+        <v>2132701</v>
+      </c>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B81" s="8"/>
+      <c r="C81" s="8"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c r="H81" s="8"/>
+      <c r="I81" s="8">
+        <f>SUM(I77:I80)</f>
+        <v>7651732</v>
+      </c>
+      <c r="J81" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C85" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D85" s="16"/>
+      <c r="E85" s="16"/>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C86" s="16"/>
+      <c r="D86" s="16"/>
+      <c r="E86" s="16"/>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B87" t="s">
+        <v>52</v>
+      </c>
+      <c r="C87" t="s">
+        <v>59</v>
+      </c>
+      <c r="D87" t="s">
+        <v>54</v>
+      </c>
+      <c r="E87" t="s">
+        <v>55</v>
+      </c>
+      <c r="F87" t="s">
+        <v>53</v>
+      </c>
+      <c r="G87" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B88" t="s">
+        <v>58</v>
+      </c>
+      <c r="C88">
+        <v>10.41</v>
+      </c>
+      <c r="D88">
+        <v>12.4</v>
+      </c>
+      <c r="E88">
+        <v>3.62</v>
+      </c>
+      <c r="F88">
+        <v>45.37</v>
+      </c>
+      <c r="G88">
+        <v>6.64</v>
+      </c>
+    </row>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B89" t="s">
+        <v>57</v>
+      </c>
+      <c r="C89">
+        <v>28.1813</v>
+      </c>
+      <c r="D89">
+        <v>32.883299999999998</v>
+      </c>
+      <c r="E89" t="s">
+        <v>61</v>
+      </c>
+      <c r="F89">
+        <v>255.00450000000001</v>
+      </c>
+      <c r="G89">
+        <v>21.793299999999999</v>
+      </c>
+    </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D91" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E91" s="16"/>
+      <c r="F91" s="16"/>
+    </row>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D92" s="16"/>
+      <c r="E92" s="16"/>
+      <c r="F92" s="16"/>
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B94" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C94" s="8">
+        <v>15</v>
+      </c>
+      <c r="D94" s="8">
+        <v>16</v>
+      </c>
+      <c r="E94" s="8">
+        <v>17</v>
+      </c>
+      <c r="F94" s="8">
+        <v>18</v>
+      </c>
+      <c r="G94" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="95" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B95" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C95" s="8">
+        <v>189056</v>
+      </c>
+      <c r="D95" s="8">
+        <v>754485</v>
+      </c>
+      <c r="E95" s="8">
+        <v>3017940</v>
+      </c>
+      <c r="F95" s="8">
+        <v>12064809</v>
+      </c>
+      <c r="G95" s="8">
+        <f>SUM(C95:F95)</f>
+        <v>16026290</v>
+      </c>
+      <c r="H95" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B96" t="s">
+        <v>70</v>
+      </c>
+      <c r="C96">
+        <v>3.8</v>
+      </c>
+      <c r="D96">
+        <v>1.9</v>
+      </c>
+      <c r="E96">
+        <v>0.95</v>
+      </c>
+      <c r="F96">
+        <v>0.47499999999999998</v>
+      </c>
+    </row>
+    <row r="98" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D98" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E98" s="16"/>
+      <c r="F98" s="16"/>
+    </row>
+    <row r="99" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D99" s="16"/>
+      <c r="E99" s="16"/>
+      <c r="F99" s="16"/>
+    </row>
+    <row r="101" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B101" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C101" s="8">
+        <v>15</v>
+      </c>
+      <c r="D101" s="8">
+        <v>16</v>
+      </c>
+      <c r="E101" s="8">
+        <v>17</v>
+      </c>
+      <c r="F101" s="8">
+        <v>18</v>
+      </c>
+      <c r="G101" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="102" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B102" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C102" s="8">
+        <v>220675</v>
+      </c>
+      <c r="D102" s="8">
+        <v>880821</v>
+      </c>
+      <c r="E102" s="8">
+        <v>3521346</v>
+      </c>
+      <c r="F102" s="8">
+        <v>14078116</v>
+      </c>
+      <c r="G102" s="8">
+        <f>SUM(C102:F102)</f>
+        <v>18700958</v>
+      </c>
+      <c r="H102" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="104" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D104" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E104" s="16"/>
+      <c r="F104" s="16"/>
+    </row>
+    <row r="105" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D105" s="16"/>
+      <c r="E105" s="16"/>
+      <c r="F105" s="16"/>
+    </row>
+    <row r="107" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B107" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C107" s="8">
+        <v>15</v>
+      </c>
+      <c r="D107" s="8">
+        <v>16</v>
+      </c>
+      <c r="E107" s="8">
+        <v>17</v>
+      </c>
+      <c r="F107" s="8">
+        <v>18</v>
+      </c>
+      <c r="G107" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="108" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B108" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C108" s="8">
+        <v>61359</v>
+      </c>
+      <c r="D108" s="8">
+        <v>244758</v>
+      </c>
+      <c r="E108" s="8">
+        <v>974880</v>
+      </c>
+      <c r="F108" s="8">
+        <v>3895373</v>
+      </c>
+      <c r="G108" s="8">
+        <f>SUM(C108:F108)</f>
+        <v>5176370</v>
+      </c>
+      <c r="H108" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="110" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D110" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="E110" s="16"/>
+      <c r="F110" s="16"/>
+    </row>
+    <row r="111" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D111" s="16"/>
+      <c r="E111" s="16"/>
+      <c r="F111" s="16"/>
+    </row>
+    <row r="113" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B113" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C113" s="8">
+        <v>15</v>
+      </c>
+      <c r="D113" s="8">
+        <v>16</v>
+      </c>
+      <c r="E113" s="8">
+        <v>17</v>
+      </c>
+      <c r="F113" s="8">
+        <v>18</v>
+      </c>
+      <c r="G113" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="114" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B114" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C114" s="8">
+        <v>1707275</v>
+      </c>
+      <c r="D114" s="8">
+        <v>6823845</v>
+      </c>
+      <c r="E114" s="8">
+        <v>27290682</v>
+      </c>
+      <c r="F114" s="8">
+        <v>109141715</v>
+      </c>
+      <c r="G114" s="8">
+        <f>SUM(C114:F114)</f>
+        <v>144963517</v>
+      </c>
+      <c r="H114" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="116" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D116" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E116" s="16"/>
+      <c r="F116" s="16"/>
+    </row>
+    <row r="117" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D117" s="16"/>
+      <c r="E117" s="16"/>
+      <c r="F117" s="16"/>
+    </row>
+    <row r="119" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B119" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C119" s="8">
+        <v>15</v>
+      </c>
+      <c r="D119" s="8">
+        <v>16</v>
+      </c>
+      <c r="E119" s="8">
+        <v>17</v>
+      </c>
+      <c r="F119" s="8">
+        <v>18</v>
+      </c>
+      <c r="G119" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="120" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B120" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C120" s="8">
+        <v>146608</v>
+      </c>
+      <c r="D120" s="8">
+        <v>584250</v>
+      </c>
+      <c r="E120" s="8">
+        <v>2333871</v>
+      </c>
+      <c r="F120" s="8">
+        <v>9331686</v>
+      </c>
+      <c r="G120" s="8">
+        <f>SUM(C120:F120)</f>
+        <v>12396415</v>
+      </c>
+      <c r="H120" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="122" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="G122">
+        <f>SUM(G95,G102,G108,G114,G120)</f>
+        <v>197263550</v>
+      </c>
+      <c r="H122" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="L14:N15"/>
+    <mergeCell ref="D110:F111"/>
+    <mergeCell ref="D116:F117"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="E73:G74"/>
+    <mergeCell ref="D91:F92"/>
+    <mergeCell ref="C85:E86"/>
+    <mergeCell ref="D98:F99"/>
+    <mergeCell ref="D104:F105"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="B48:B52"/>
+    <mergeCell ref="B53:B57"/>
+    <mergeCell ref="B58:B62"/>
+    <mergeCell ref="B27:B28"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" t="s">
+        <v>105</v>
+      </c>
+      <c r="E12" t="s">
+        <v>93</v>
+      </c>
+      <c r="F12">
+        <v>7919520</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>103</v>
+      </c>
+      <c r="C17" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/record.xlsx
+++ b/record.xlsx
@@ -1,31 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\maptiledownload\map-download-record\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C28BE5FC-FDF1-47E5-9AF3-44551A1FBDD9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="345" windowWidth="2385" windowHeight="570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="122">
   <si>
     <t>中国分20块</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -452,13 +458,73 @@
   </si>
   <si>
     <t>jpg90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甘肃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3_20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4_20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5_20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8_20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9_20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10_20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11_20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12_20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13_20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14_20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16_20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17_20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18_20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谷歌卫星、GCJ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -580,7 +646,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -594,12 +660,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -608,83 +668,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -713,7 +712,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3" descr="https://img-blog.csdnimg.cn/20190301111203497.png?x-oss-process=image/watermark,type_ZmFuZ3poZW5naGVpdGk,shadow_10,text_aHR0cHM6Ly9ibG9nLmNzZG4ubmV0L3p5MzMyNzE5Nzk0,size_16,color_FFFFFF,t_70"/>
+        <xdr:cNvPr id="4" name="图片 3" descr="https://img-blog.csdnimg.cn/20190301111203497.png?x-oss-process=image/watermark,type_ZmFuZ3poZW5naGVpdGk,shadow_10,text_aHR0cHM6Ly9ibG9nLmNzZG4ubmV0L3p5MzMyNzE5Nzk0,size_16,color_FFFFFF,t_70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -764,7 +769,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CAEACE"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1018,30 +1023,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T122"/>
   <sheetViews>
     <sheetView topLeftCell="A88" workbookViewId="0">
       <selection activeCell="E95" sqref="E95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.625" customWidth="1"/>
-    <col min="3" max="3" width="13.625" customWidth="1"/>
-    <col min="4" max="4" width="23.75" customWidth="1"/>
-    <col min="5" max="5" width="34.125" customWidth="1"/>
-    <col min="6" max="6" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="28.25" customWidth="1"/>
-    <col min="8" max="8" width="40.875" customWidth="1"/>
-    <col min="12" max="12" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.5" customWidth="1"/>
-    <col min="15" max="15" width="11.875" customWidth="1"/>
-    <col min="17" max="17" width="15.625" customWidth="1"/>
-    <col min="19" max="19" width="11.75" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="23.77734375" customWidth="1"/>
+    <col min="5" max="5" width="34.109375" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" customWidth="1"/>
+    <col min="7" max="7" width="28.21875" customWidth="1"/>
+    <col min="8" max="8" width="40.88671875" customWidth="1"/>
+    <col min="12" max="12" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.44140625" customWidth="1"/>
+    <col min="15" max="15" width="11.88671875" customWidth="1"/>
+    <col min="17" max="17" width="15.6640625" customWidth="1"/>
+    <col min="19" max="19" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1055,25 +1060,25 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="M2" s="14" t="s">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M2" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14" t="s">
+      <c r="N2" s="12"/>
+      <c r="O2" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14" t="s">
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14" t="s">
+      <c r="R2" s="12"/>
+      <c r="S2" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="T2" s="14"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T2" s="12"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1129,7 +1134,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1163,7 +1168,7 @@
       <c r="Q4" s="9"/>
       <c r="S4" s="9"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1181,7 +1186,7 @@
       <c r="Q5" s="9"/>
       <c r="S5" s="9"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1196,7 +1201,7 @@
       <c r="Q6" s="9"/>
       <c r="S6" s="9"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1229,13 +1234,13 @@
       <c r="Q7" s="9"/>
       <c r="S7" s="9"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="C8" s="6"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1246,7 +1251,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -1254,7 +1259,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
@@ -1262,7 +1267,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9</v>
       </c>
@@ -1270,7 +1275,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10</v>
       </c>
@@ -1296,7 +1301,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>11</v>
       </c>
@@ -1321,24 +1326,24 @@
       <c r="H14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L14" s="14" t="s">
+      <c r="L14" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12</v>
       </c>
       <c r="C15" s="3">
         <v>12</v>
       </c>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>13</v>
       </c>
@@ -1361,7 +1366,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>14</v>
       </c>
@@ -1378,7 +1383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>15</v>
       </c>
@@ -1392,7 +1397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>16</v>
       </c>
@@ -1415,7 +1420,7 @@
         <v>0.17209571205951846</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>17</v>
       </c>
@@ -1438,7 +1443,7 @@
         <v>0.25968436154949781</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>18</v>
       </c>
@@ -1461,12 +1466,12 @@
         <v>0.41355377523556347</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>20</v>
       </c>
@@ -1480,12 +1485,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -1499,31 +1504,31 @@
       <c r="O26" s="11"/>
       <c r="P26" s="11"/>
     </row>
-    <row r="27" spans="1:16" ht="47.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" ht="47.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>15</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="15" t="s">
         <v>21</v>
       </c>
       <c r="N27" s="11"/>
       <c r="O27" s="11"/>
       <c r="P27" s="11"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>16</v>
       </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
       <c r="N28" s="11"/>
       <c r="O28" s="11"/>
       <c r="P28" s="11"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>17</v>
       </c>
@@ -1531,7 +1536,7 @@
       <c r="O29" s="11"/>
       <c r="P29" s="11"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>18</v>
       </c>
@@ -1539,32 +1544,32 @@
       <c r="O30" s="11"/>
       <c r="P30" s="11"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="N31" s="11"/>
       <c r="O31" s="11"/>
       <c r="P31" s="11"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="N32" s="11"/>
       <c r="O32" s="11"/>
       <c r="P32" s="11"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="N33" s="11"/>
       <c r="O33" s="11"/>
       <c r="P33" s="11"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="N34" s="11"/>
       <c r="O34" s="11"/>
       <c r="P34" s="11"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>1</v>
       </c>
@@ -1590,11 +1595,11 @@
         <v>32</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1</v>
       </c>
-      <c r="B43" s="12">
+      <c r="B43" s="15">
         <v>1</v>
       </c>
       <c r="D43">
@@ -1617,35 +1622,35 @@
         <v>326147</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2</v>
       </c>
-      <c r="B44" s="12"/>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B44" s="15"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>3</v>
       </c>
-      <c r="B45" s="12"/>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B45" s="15"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>4</v>
       </c>
-      <c r="B46" s="12"/>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B46" s="15"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>5</v>
       </c>
-      <c r="B47" s="12"/>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B47" s="15"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>6</v>
       </c>
-      <c r="B48" s="12">
+      <c r="B48" s="15">
         <v>2</v>
       </c>
       <c r="D48">
@@ -1668,35 +1673,35 @@
         <v>353287</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>7</v>
       </c>
-      <c r="B49" s="12"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B49" s="15"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>8</v>
       </c>
-      <c r="B50" s="12"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B50" s="15"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>9</v>
       </c>
-      <c r="B51" s="12"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B51" s="15"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>10</v>
       </c>
-      <c r="B52" s="12"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B52" s="15"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>11</v>
       </c>
-      <c r="B53" s="12">
+      <c r="B53" s="15">
         <v>3</v>
       </c>
       <c r="D53">
@@ -1719,35 +1724,35 @@
         <v>394674</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>12</v>
       </c>
-      <c r="B54" s="12"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B54" s="15"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>13</v>
       </c>
-      <c r="B55" s="12"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B55" s="15"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>14</v>
       </c>
-      <c r="B56" s="12"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B56" s="15"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>15</v>
       </c>
-      <c r="B57" s="12"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B57" s="15"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>16</v>
       </c>
-      <c r="B58" s="12">
+      <c r="B58" s="15">
         <v>4</v>
       </c>
       <c r="D58">
@@ -1770,36 +1775,36 @@
         <v>461247</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>17</v>
       </c>
-      <c r="B59" s="12"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B59" s="15"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>18</v>
       </c>
-      <c r="B60" s="12"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B60" s="15"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>19</v>
       </c>
-      <c r="B61" s="12"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B61" s="15"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>20</v>
       </c>
-      <c r="B62" s="12"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B62" s="15"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>39</v>
       </c>
@@ -1810,39 +1815,39 @@
         <v>44</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E73" s="16" t="s">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E73" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="F73" s="12"/>
-      <c r="G73" s="12"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E74" s="12"/>
-      <c r="F74" s="12"/>
-      <c r="G74" s="12"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F73" s="15"/>
+      <c r="G73" s="15"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E74" s="15"/>
+      <c r="F74" s="15"/>
+      <c r="G74" s="15"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B75" s="8" t="s">
         <v>48</v>
       </c>
@@ -1868,7 +1873,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B76" s="8" t="s">
         <v>41</v>
       </c>
@@ -1880,7 +1885,7 @@
       <c r="H76" s="8"/>
       <c r="I76" s="8"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B77" s="8">
         <v>1</v>
       </c>
@@ -1905,7 +1910,7 @@
         <v>1693076</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B78" s="8">
         <v>2</v>
       </c>
@@ -1930,7 +1935,7 @@
         <v>1692392</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B79" s="8">
         <v>3</v>
       </c>
@@ -1955,7 +1960,7 @@
         <v>2133563</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B80" s="8">
         <v>4</v>
       </c>
@@ -1980,7 +1985,7 @@
         <v>2132701</v>
       </c>
     </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
       <c r="D81" s="8"/>
@@ -1996,19 +2001,19 @@
         <v>76</v>
       </c>
     </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C85" s="15" t="s">
+    <row r="85" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C85" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="D85" s="16"/>
-      <c r="E85" s="16"/>
-    </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="C86" s="16"/>
-      <c r="D86" s="16"/>
-      <c r="E86" s="16"/>
-    </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D85" s="14"/>
+      <c r="E85" s="14"/>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C86" s="14"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="14"/>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>52</v>
       </c>
@@ -2028,7 +2033,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>58</v>
       </c>
@@ -2048,7 +2053,7 @@
         <v>6.64</v>
       </c>
     </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>57</v>
       </c>
@@ -2068,19 +2073,19 @@
         <v>21.793299999999999</v>
       </c>
     </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D91" s="15" t="s">
+    <row r="91" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D91" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="E91" s="16"/>
-      <c r="F91" s="16"/>
-    </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D92" s="16"/>
-      <c r="E92" s="16"/>
-      <c r="F92" s="16"/>
-    </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="E91" s="14"/>
+      <c r="F91" s="14"/>
+    </row>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D92" s="14"/>
+      <c r="E92" s="14"/>
+      <c r="F92" s="14"/>
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B94" s="8" t="s">
         <v>47</v>
       </c>
@@ -2100,7 +2105,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B95" s="8" t="s">
         <v>51</v>
       </c>
@@ -2124,7 +2129,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="96" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
         <v>70</v>
       </c>
@@ -2141,19 +2146,19 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="98" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D98" s="15" t="s">
+    <row r="98" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D98" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="E98" s="16"/>
-      <c r="F98" s="16"/>
-    </row>
-    <row r="99" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D99" s="16"/>
-      <c r="E99" s="16"/>
-      <c r="F99" s="16"/>
-    </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="E98" s="14"/>
+      <c r="F98" s="14"/>
+    </row>
+    <row r="99" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D99" s="14"/>
+      <c r="E99" s="14"/>
+      <c r="F99" s="14"/>
+    </row>
+    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B101" s="8" t="s">
         <v>47</v>
       </c>
@@ -2173,7 +2178,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B102" s="8" t="s">
         <v>51</v>
       </c>
@@ -2197,19 +2202,19 @@
         <v>63</v>
       </c>
     </row>
-    <row r="104" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="D104" s="15" t="s">
+    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D104" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="E104" s="16"/>
-      <c r="F104" s="16"/>
-    </row>
-    <row r="105" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="D105" s="16"/>
-      <c r="E105" s="16"/>
-      <c r="F105" s="16"/>
-    </row>
-    <row r="107" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="E104" s="14"/>
+      <c r="F104" s="14"/>
+    </row>
+    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D105" s="14"/>
+      <c r="E105" s="14"/>
+      <c r="F105" s="14"/>
+    </row>
+    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B107" s="8" t="s">
         <v>47</v>
       </c>
@@ -2229,7 +2234,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="108" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B108" s="8" t="s">
         <v>51</v>
       </c>
@@ -2253,19 +2258,19 @@
         <v>67</v>
       </c>
     </row>
-    <row r="110" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="D110" s="15" t="s">
+    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D110" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="E110" s="16"/>
-      <c r="F110" s="16"/>
-    </row>
-    <row r="111" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="D111" s="16"/>
-      <c r="E111" s="16"/>
-      <c r="F111" s="16"/>
-    </row>
-    <row r="113" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="E110" s="14"/>
+      <c r="F110" s="14"/>
+    </row>
+    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D111" s="14"/>
+      <c r="E111" s="14"/>
+      <c r="F111" s="14"/>
+    </row>
+    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B113" s="8" t="s">
         <v>47</v>
       </c>
@@ -2285,7 +2290,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="114" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B114" s="8" t="s">
         <v>51</v>
       </c>
@@ -2309,19 +2314,19 @@
         <v>68</v>
       </c>
     </row>
-    <row r="116" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="D116" s="15" t="s">
+    <row r="116" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D116" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="E116" s="16"/>
-      <c r="F116" s="16"/>
-    </row>
-    <row r="117" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="D117" s="16"/>
-      <c r="E117" s="16"/>
-      <c r="F117" s="16"/>
-    </row>
-    <row r="119" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="E116" s="14"/>
+      <c r="F116" s="14"/>
+    </row>
+    <row r="117" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D117" s="14"/>
+      <c r="E117" s="14"/>
+      <c r="F117" s="14"/>
+    </row>
+    <row r="119" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B119" s="8" t="s">
         <v>47</v>
       </c>
@@ -2341,7 +2346,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="120" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B120" s="8" t="s">
         <v>51</v>
       </c>
@@ -2365,7 +2370,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="122" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:8" x14ac:dyDescent="0.25">
       <c r="G122">
         <f>SUM(G95,G102,G108,G114,G120)</f>
         <v>197263550</v>
@@ -2376,6 +2381,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="B48:B52"/>
+    <mergeCell ref="B53:B57"/>
+    <mergeCell ref="B58:B62"/>
+    <mergeCell ref="B27:B28"/>
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="L14:N15"/>
     <mergeCell ref="D110:F111"/>
@@ -2389,11 +2399,6 @@
     <mergeCell ref="D98:F99"/>
     <mergeCell ref="D104:F105"/>
     <mergeCell ref="C27:C28"/>
-    <mergeCell ref="B43:B47"/>
-    <mergeCell ref="B48:B52"/>
-    <mergeCell ref="B53:B57"/>
-    <mergeCell ref="B58:B62"/>
-    <mergeCell ref="B27:B28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2403,16 +2408,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="19.21875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>85</v>
       </c>
@@ -2423,7 +2431,7 @@
       <c r="F1" s="17"/>
       <c r="G1" s="17"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="17"/>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
@@ -2432,7 +2440,7 @@
       <c r="F2" s="17"/>
       <c r="G2" s="17"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="17"/>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
@@ -2441,7 +2449,7 @@
       <c r="F3" s="17"/>
       <c r="G3" s="17"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>91</v>
       </c>
@@ -2458,30 +2466,42 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>97</v>
       </c>
       <c r="C7" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>86</v>
       </c>
@@ -2495,7 +2515,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>87</v>
       </c>
@@ -2509,7 +2529,7 @@
         <v>7919520</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>96</v>
       </c>
@@ -2517,30 +2537,126 @@
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>98</v>
       </c>
       <c r="C14" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>103</v>
       </c>
       <c r="C17" t="s">
         <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18" t="s">
+        <v>108</v>
+      </c>
+      <c r="D18" s="18"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>115</v>
+      </c>
+      <c r="D25" t="s">
+        <v>121</v>
+      </c>
+      <c r="E25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>117</v>
+      </c>
+      <c r="D27" t="s">
+        <v>121</v>
+      </c>
+      <c r="E27">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>118</v>
+      </c>
+      <c r="D28" t="s">
+        <v>121</v>
+      </c>
+      <c r="E28">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/record.xlsx
+++ b/record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\maptiledownload\map-download-record\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C28BE5FC-FDF1-47E5-9AF3-44551A1FBDD9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28820672-43E1-48FD-9855-6658630C1823}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="128">
   <si>
     <t>中国分20块</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -518,6 +518,30 @@
   </si>
   <si>
     <t>谷歌卫星、GCJ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谷歌卫星、无偏移。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正在自己座位台式电脑上下载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正在卢鹏电脑上下载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大小（MB）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已转到服务器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yes</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -563,7 +587,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -597,6 +621,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -659,6 +689,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -668,16 +705,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1061,22 +1091,22 @@
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="M2" s="12" t="s">
+      <c r="M2" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12" t="s">
+      <c r="N2" s="15"/>
+      <c r="O2" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12" t="s">
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12" t="s">
+      <c r="R2" s="15"/>
+      <c r="S2" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="T2" s="12"/>
+      <c r="T2" s="15"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1326,11 +1356,11 @@
       <c r="H14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L14" s="12" t="s">
+      <c r="L14" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -1339,9 +1369,9 @@
       <c r="C15" s="3">
         <v>12</v>
       </c>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -1508,10 +1538,10 @@
       <c r="A27">
         <v>15</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="13" t="s">
         <v>21</v>
       </c>
       <c r="N27" s="11"/>
@@ -1522,8 +1552,8 @@
       <c r="A28">
         <v>16</v>
       </c>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
       <c r="N28" s="11"/>
       <c r="O28" s="11"/>
       <c r="P28" s="11"/>
@@ -1599,7 +1629,7 @@
       <c r="A43">
         <v>1</v>
       </c>
-      <c r="B43" s="15">
+      <c r="B43" s="13">
         <v>1</v>
       </c>
       <c r="D43">
@@ -1626,31 +1656,31 @@
       <c r="A44">
         <v>2</v>
       </c>
-      <c r="B44" s="15"/>
+      <c r="B44" s="13"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>3</v>
       </c>
-      <c r="B45" s="15"/>
+      <c r="B45" s="13"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>4</v>
       </c>
-      <c r="B46" s="15"/>
+      <c r="B46" s="13"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>5</v>
       </c>
-      <c r="B47" s="15"/>
+      <c r="B47" s="13"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>6</v>
       </c>
-      <c r="B48" s="15">
+      <c r="B48" s="13">
         <v>2</v>
       </c>
       <c r="D48">
@@ -1677,31 +1707,31 @@
       <c r="A49">
         <v>7</v>
       </c>
-      <c r="B49" s="15"/>
+      <c r="B49" s="13"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>8</v>
       </c>
-      <c r="B50" s="15"/>
+      <c r="B50" s="13"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>9</v>
       </c>
-      <c r="B51" s="15"/>
+      <c r="B51" s="13"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>10</v>
       </c>
-      <c r="B52" s="15"/>
+      <c r="B52" s="13"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>11</v>
       </c>
-      <c r="B53" s="15">
+      <c r="B53" s="13">
         <v>3</v>
       </c>
       <c r="D53">
@@ -1728,31 +1758,31 @@
       <c r="A54">
         <v>12</v>
       </c>
-      <c r="B54" s="15"/>
+      <c r="B54" s="13"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>13</v>
       </c>
-      <c r="B55" s="15"/>
+      <c r="B55" s="13"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>14</v>
       </c>
-      <c r="B56" s="15"/>
+      <c r="B56" s="13"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>15</v>
       </c>
-      <c r="B57" s="15"/>
+      <c r="B57" s="13"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>16</v>
       </c>
-      <c r="B58" s="15">
+      <c r="B58" s="13">
         <v>4</v>
       </c>
       <c r="D58">
@@ -1779,25 +1809,25 @@
       <c r="A59">
         <v>17</v>
       </c>
-      <c r="B59" s="15"/>
+      <c r="B59" s="13"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>18</v>
       </c>
-      <c r="B60" s="15"/>
+      <c r="B60" s="13"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>19</v>
       </c>
-      <c r="B61" s="15"/>
+      <c r="B61" s="13"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>20</v>
       </c>
-      <c r="B62" s="15"/>
+      <c r="B62" s="13"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
@@ -1836,16 +1866,16 @@
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E73" s="14" t="s">
+      <c r="E73" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="F73" s="15"/>
-      <c r="G73" s="15"/>
+      <c r="F73" s="13"/>
+      <c r="G73" s="13"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E74" s="15"/>
-      <c r="F74" s="15"/>
-      <c r="G74" s="15"/>
+      <c r="E74" s="13"/>
+      <c r="F74" s="13"/>
+      <c r="G74" s="13"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B75" s="8" t="s">
@@ -2002,16 +2032,16 @@
       </c>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C85" s="13" t="s">
+      <c r="C85" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="D85" s="14"/>
-      <c r="E85" s="14"/>
+      <c r="D85" s="17"/>
+      <c r="E85" s="17"/>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C86" s="14"/>
-      <c r="D86" s="14"/>
-      <c r="E86" s="14"/>
+      <c r="C86" s="17"/>
+      <c r="D86" s="17"/>
+      <c r="E86" s="17"/>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
@@ -2074,16 +2104,16 @@
       </c>
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D91" s="13" t="s">
+      <c r="D91" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="E91" s="14"/>
-      <c r="F91" s="14"/>
+      <c r="E91" s="17"/>
+      <c r="F91" s="17"/>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D92" s="14"/>
-      <c r="E92" s="14"/>
-      <c r="F92" s="14"/>
+      <c r="D92" s="17"/>
+      <c r="E92" s="17"/>
+      <c r="F92" s="17"/>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B94" s="8" t="s">
@@ -2147,16 +2177,16 @@
       </c>
     </row>
     <row r="98" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D98" s="13" t="s">
+      <c r="D98" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="E98" s="14"/>
-      <c r="F98" s="14"/>
+      <c r="E98" s="17"/>
+      <c r="F98" s="17"/>
     </row>
     <row r="99" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D99" s="14"/>
-      <c r="E99" s="14"/>
-      <c r="F99" s="14"/>
+      <c r="D99" s="17"/>
+      <c r="E99" s="17"/>
+      <c r="F99" s="17"/>
     </row>
     <row r="101" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B101" s="8" t="s">
@@ -2203,16 +2233,16 @@
       </c>
     </row>
     <row r="104" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D104" s="13" t="s">
+      <c r="D104" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E104" s="14"/>
-      <c r="F104" s="14"/>
+      <c r="E104" s="17"/>
+      <c r="F104" s="17"/>
     </row>
     <row r="105" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D105" s="14"/>
-      <c r="E105" s="14"/>
-      <c r="F105" s="14"/>
+      <c r="D105" s="17"/>
+      <c r="E105" s="17"/>
+      <c r="F105" s="17"/>
     </row>
     <row r="107" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B107" s="8" t="s">
@@ -2259,16 +2289,16 @@
       </c>
     </row>
     <row r="110" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D110" s="13" t="s">
+      <c r="D110" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="E110" s="14"/>
-      <c r="F110" s="14"/>
+      <c r="E110" s="17"/>
+      <c r="F110" s="17"/>
     </row>
     <row r="111" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D111" s="14"/>
-      <c r="E111" s="14"/>
-      <c r="F111" s="14"/>
+      <c r="D111" s="17"/>
+      <c r="E111" s="17"/>
+      <c r="F111" s="17"/>
     </row>
     <row r="113" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B113" s="8" t="s">
@@ -2315,16 +2345,16 @@
       </c>
     </row>
     <row r="116" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D116" s="13" t="s">
+      <c r="D116" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="E116" s="14"/>
-      <c r="F116" s="14"/>
+      <c r="E116" s="17"/>
+      <c r="F116" s="17"/>
     </row>
     <row r="117" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D117" s="14"/>
-      <c r="E117" s="14"/>
-      <c r="F117" s="14"/>
+      <c r="D117" s="17"/>
+      <c r="E117" s="17"/>
+      <c r="F117" s="17"/>
     </row>
     <row r="119" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B119" s="8" t="s">
@@ -2381,11 +2411,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B43:B47"/>
-    <mergeCell ref="B48:B52"/>
-    <mergeCell ref="B53:B57"/>
-    <mergeCell ref="B58:B62"/>
-    <mergeCell ref="B27:B28"/>
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="L14:N15"/>
     <mergeCell ref="D110:F111"/>
@@ -2399,6 +2424,11 @@
     <mergeCell ref="D98:F99"/>
     <mergeCell ref="D104:F105"/>
     <mergeCell ref="C27:C28"/>
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="B48:B52"/>
+    <mergeCell ref="B53:B57"/>
+    <mergeCell ref="B58:B62"/>
+    <mergeCell ref="B27:B28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2409,47 +2439,50 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="19.77734375" customWidth="1"/>
     <col min="4" max="4" width="19.21875" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1"/>
+    <col min="8" max="8" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>91</v>
       </c>
@@ -2465,8 +2498,14 @@
       <c r="F4" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>97</v>
       </c>
@@ -2476,32 +2515,44 @@
       <c r="D7" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>100</v>
       </c>
       <c r="D8" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>101</v>
       </c>
       <c r="D9" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>102</v>
       </c>
       <c r="D10" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>86</v>
       </c>
@@ -2514,8 +2565,11 @@
       <c r="E11" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>87</v>
       </c>
@@ -2528,16 +2582,22 @@
       <c r="F12">
         <v>7919520</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>96</v>
       </c>
       <c r="D13" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>98</v>
       </c>
@@ -2547,71 +2607,112 @@
       <c r="D14" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>87</v>
       </c>
       <c r="D15" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>96</v>
       </c>
       <c r="D16" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>103</v>
       </c>
       <c r="C17" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="H17" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>107</v>
       </c>
       <c r="C18" t="s">
         <v>108</v>
       </c>
-      <c r="D18" s="18"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="12" t="s">
+        <v>123</v>
+      </c>
       <c r="C22" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>122</v>
+      </c>
+      <c r="E23">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>122</v>
+      </c>
+      <c r="E24">
+        <v>90</v>
+      </c>
+      <c r="G24">
+        <v>102407</v>
+      </c>
+      <c r="H24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>115</v>
       </c>
@@ -2621,13 +2722,28 @@
       <c r="E25">
         <v>75</v>
       </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="H25" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="12" t="s">
+        <v>124</v>
+      </c>
       <c r="C26" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>121</v>
+      </c>
+      <c r="E26">
+        <v>90</v>
+      </c>
+      <c r="H26" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>117</v>
       </c>
@@ -2637,8 +2753,11 @@
       <c r="E27">
         <v>75</v>
       </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="H27" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>118</v>
       </c>
@@ -2648,13 +2767,19 @@
       <c r="E28">
         <v>75</v>
       </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="H28" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>120</v>
       </c>

--- a/record.xlsx
+++ b/record.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\maptiledownload\map-download-record\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28820672-43E1-48FD-9855-6658630C1823}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77AAA242-0D46-4B64-8376-500CD33A7D40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,6 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="131">
   <si>
     <t>中国分20块</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -525,14 +526,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>正在自己座位台式电脑上下载</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正在卢鹏电脑上下载</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>大小（MB）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -542,6 +535,26 @@
   </si>
   <si>
     <t>yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破损，需重新下载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>76.5G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>93.4G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>76.8 G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>84.2G</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -587,7 +600,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -621,12 +634,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -676,7 +683,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -689,13 +696,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -704,6 +704,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1091,22 +1097,22 @@
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="M2" s="15" t="s">
+      <c r="M2" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15" t="s">
+      <c r="N2" s="12"/>
+      <c r="O2" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15" t="s">
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15" t="s">
+      <c r="R2" s="12"/>
+      <c r="S2" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="T2" s="15"/>
+      <c r="T2" s="12"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1356,11 +1362,11 @@
       <c r="H14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L14" s="15" t="s">
+      <c r="L14" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -1369,9 +1375,9 @@
       <c r="C15" s="3">
         <v>12</v>
       </c>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -1538,10 +1544,10 @@
       <c r="A27">
         <v>15</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="15" t="s">
         <v>21</v>
       </c>
       <c r="N27" s="11"/>
@@ -1552,8 +1558,8 @@
       <c r="A28">
         <v>16</v>
       </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
       <c r="N28" s="11"/>
       <c r="O28" s="11"/>
       <c r="P28" s="11"/>
@@ -1629,7 +1635,7 @@
       <c r="A43">
         <v>1</v>
       </c>
-      <c r="B43" s="13">
+      <c r="B43" s="15">
         <v>1</v>
       </c>
       <c r="D43">
@@ -1656,31 +1662,31 @@
       <c r="A44">
         <v>2</v>
       </c>
-      <c r="B44" s="13"/>
+      <c r="B44" s="15"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>3</v>
       </c>
-      <c r="B45" s="13"/>
+      <c r="B45" s="15"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>4</v>
       </c>
-      <c r="B46" s="13"/>
+      <c r="B46" s="15"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>5</v>
       </c>
-      <c r="B47" s="13"/>
+      <c r="B47" s="15"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>6</v>
       </c>
-      <c r="B48" s="13">
+      <c r="B48" s="15">
         <v>2</v>
       </c>
       <c r="D48">
@@ -1707,31 +1713,31 @@
       <c r="A49">
         <v>7</v>
       </c>
-      <c r="B49" s="13"/>
+      <c r="B49" s="15"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>8</v>
       </c>
-      <c r="B50" s="13"/>
+      <c r="B50" s="15"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>9</v>
       </c>
-      <c r="B51" s="13"/>
+      <c r="B51" s="15"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>10</v>
       </c>
-      <c r="B52" s="13"/>
+      <c r="B52" s="15"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>11</v>
       </c>
-      <c r="B53" s="13">
+      <c r="B53" s="15">
         <v>3</v>
       </c>
       <c r="D53">
@@ -1758,31 +1764,31 @@
       <c r="A54">
         <v>12</v>
       </c>
-      <c r="B54" s="13"/>
+      <c r="B54" s="15"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>13</v>
       </c>
-      <c r="B55" s="13"/>
+      <c r="B55" s="15"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>14</v>
       </c>
-      <c r="B56" s="13"/>
+      <c r="B56" s="15"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>15</v>
       </c>
-      <c r="B57" s="13"/>
+      <c r="B57" s="15"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>16</v>
       </c>
-      <c r="B58" s="13">
+      <c r="B58" s="15">
         <v>4</v>
       </c>
       <c r="D58">
@@ -1809,25 +1815,25 @@
       <c r="A59">
         <v>17</v>
       </c>
-      <c r="B59" s="13"/>
+      <c r="B59" s="15"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>18</v>
       </c>
-      <c r="B60" s="13"/>
+      <c r="B60" s="15"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>19</v>
       </c>
-      <c r="B61" s="13"/>
+      <c r="B61" s="15"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>20</v>
       </c>
-      <c r="B62" s="13"/>
+      <c r="B62" s="15"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
@@ -1866,16 +1872,16 @@
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E73" s="17" t="s">
+      <c r="E73" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="F73" s="13"/>
-      <c r="G73" s="13"/>
+      <c r="F73" s="15"/>
+      <c r="G73" s="15"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E74" s="13"/>
-      <c r="F74" s="13"/>
-      <c r="G74" s="13"/>
+      <c r="E74" s="15"/>
+      <c r="F74" s="15"/>
+      <c r="G74" s="15"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B75" s="8" t="s">
@@ -2032,16 +2038,16 @@
       </c>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C85" s="16" t="s">
+      <c r="C85" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="D85" s="17"/>
-      <c r="E85" s="17"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="14"/>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C86" s="17"/>
-      <c r="D86" s="17"/>
-      <c r="E86" s="17"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="14"/>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
@@ -2104,16 +2110,16 @@
       </c>
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D91" s="16" t="s">
+      <c r="D91" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="E91" s="17"/>
-      <c r="F91" s="17"/>
+      <c r="E91" s="14"/>
+      <c r="F91" s="14"/>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D92" s="17"/>
-      <c r="E92" s="17"/>
-      <c r="F92" s="17"/>
+      <c r="D92" s="14"/>
+      <c r="E92" s="14"/>
+      <c r="F92" s="14"/>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B94" s="8" t="s">
@@ -2177,16 +2183,16 @@
       </c>
     </row>
     <row r="98" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D98" s="16" t="s">
+      <c r="D98" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="E98" s="17"/>
-      <c r="F98" s="17"/>
+      <c r="E98" s="14"/>
+      <c r="F98" s="14"/>
     </row>
     <row r="99" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D99" s="17"/>
-      <c r="E99" s="17"/>
-      <c r="F99" s="17"/>
+      <c r="D99" s="14"/>
+      <c r="E99" s="14"/>
+      <c r="F99" s="14"/>
     </row>
     <row r="101" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B101" s="8" t="s">
@@ -2233,16 +2239,16 @@
       </c>
     </row>
     <row r="104" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D104" s="16" t="s">
+      <c r="D104" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="E104" s="17"/>
-      <c r="F104" s="17"/>
+      <c r="E104" s="14"/>
+      <c r="F104" s="14"/>
     </row>
     <row r="105" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D105" s="17"/>
-      <c r="E105" s="17"/>
-      <c r="F105" s="17"/>
+      <c r="D105" s="14"/>
+      <c r="E105" s="14"/>
+      <c r="F105" s="14"/>
     </row>
     <row r="107" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B107" s="8" t="s">
@@ -2289,16 +2295,16 @@
       </c>
     </row>
     <row r="110" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D110" s="16" t="s">
+      <c r="D110" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="E110" s="17"/>
-      <c r="F110" s="17"/>
+      <c r="E110" s="14"/>
+      <c r="F110" s="14"/>
     </row>
     <row r="111" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D111" s="17"/>
-      <c r="E111" s="17"/>
-      <c r="F111" s="17"/>
+      <c r="D111" s="14"/>
+      <c r="E111" s="14"/>
+      <c r="F111" s="14"/>
     </row>
     <row r="113" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B113" s="8" t="s">
@@ -2345,16 +2351,16 @@
       </c>
     </row>
     <row r="116" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D116" s="16" t="s">
+      <c r="D116" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="E116" s="17"/>
-      <c r="F116" s="17"/>
+      <c r="E116" s="14"/>
+      <c r="F116" s="14"/>
     </row>
     <row r="117" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D117" s="17"/>
-      <c r="E117" s="17"/>
-      <c r="F117" s="17"/>
+      <c r="D117" s="14"/>
+      <c r="E117" s="14"/>
+      <c r="F117" s="14"/>
     </row>
     <row r="119" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B119" s="8" t="s">
@@ -2411,6 +2417,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="B48:B52"/>
+    <mergeCell ref="B53:B57"/>
+    <mergeCell ref="B58:B62"/>
+    <mergeCell ref="B27:B28"/>
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="L14:N15"/>
     <mergeCell ref="D110:F111"/>
@@ -2424,11 +2435,6 @@
     <mergeCell ref="D98:F99"/>
     <mergeCell ref="D104:F105"/>
     <mergeCell ref="C27:C28"/>
-    <mergeCell ref="B43:B47"/>
-    <mergeCell ref="B48:B52"/>
-    <mergeCell ref="B53:B57"/>
-    <mergeCell ref="B58:B62"/>
-    <mergeCell ref="B27:B28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2441,8 +2447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2454,33 +2460,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
@@ -2499,10 +2505,10 @@
         <v>94</v>
       </c>
       <c r="G4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -2516,7 +2522,7 @@
         <v>121</v>
       </c>
       <c r="H7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -2527,7 +2533,7 @@
         <v>121</v>
       </c>
       <c r="H8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -2538,7 +2544,7 @@
         <v>121</v>
       </c>
       <c r="H9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -2549,7 +2555,7 @@
         <v>121</v>
       </c>
       <c r="H10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -2566,7 +2572,7 @@
         <v>106</v>
       </c>
       <c r="H11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -2583,7 +2589,7 @@
         <v>7919520</v>
       </c>
       <c r="H12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -2594,7 +2600,7 @@
         <v>88</v>
       </c>
       <c r="H13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -2608,7 +2614,7 @@
         <v>88</v>
       </c>
       <c r="H14" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -2619,7 +2625,7 @@
         <v>88</v>
       </c>
       <c r="H15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -2630,7 +2636,7 @@
         <v>88</v>
       </c>
       <c r="H16" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
@@ -2641,7 +2647,7 @@
         <v>104</v>
       </c>
       <c r="H17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
@@ -2664,6 +2670,9 @@
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="3" t="s">
+        <v>126</v>
+      </c>
       <c r="C20" t="s">
         <v>110</v>
       </c>
@@ -2677,11 +2686,18 @@
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="12" t="s">
-        <v>123</v>
-      </c>
+      <c r="B22" s="6"/>
       <c r="C22" t="s">
         <v>112</v>
+      </c>
+      <c r="D22" t="s">
+        <v>105</v>
+      </c>
+      <c r="E22">
+        <v>80</v>
+      </c>
+      <c r="G22" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
@@ -2709,7 +2725,7 @@
         <v>102407</v>
       </c>
       <c r="H24" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
@@ -2722,14 +2738,18 @@
       <c r="E25">
         <v>75</v>
       </c>
+      <c r="F25">
+        <v>7362872</v>
+      </c>
+      <c r="G25" t="s">
+        <v>127</v>
+      </c>
       <c r="H25" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="12" t="s">
-        <v>124</v>
-      </c>
+      <c r="B26" s="6"/>
       <c r="C26" t="s">
         <v>116</v>
       </c>
@@ -2740,7 +2760,7 @@
         <v>90</v>
       </c>
       <c r="H26" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
@@ -2753,8 +2773,14 @@
       <c r="E27">
         <v>75</v>
       </c>
+      <c r="F27">
+        <v>7371043</v>
+      </c>
+      <c r="G27" t="s">
+        <v>128</v>
+      </c>
       <c r="H27" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
@@ -2767,8 +2793,14 @@
       <c r="E28">
         <v>75</v>
       </c>
+      <c r="F28">
+        <v>7648865</v>
+      </c>
+      <c r="G28" t="s">
+        <v>129</v>
+      </c>
       <c r="H28" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">

--- a/record.xlsx
+++ b/record.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\maptiledownload\map-download-record\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\taiwan\map-download-record\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77AAA242-0D46-4B64-8376-500CD33A7D40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="132">
   <si>
     <t>中国分20块</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -555,13 +554,17 @@
   </si>
   <si>
     <t>84.2G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>115G</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -697,6 +700,12 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -704,12 +713,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -720,6 +723,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -751,7 +822,7 @@
         <xdr:cNvPr id="4" name="图片 3" descr="https://img-blog.csdnimg.cn/20190301111203497.png?x-oss-process=image/watermark,type_ZmFuZ3poZW5naGVpdGk,shadow_10,text_aHR0cHM6Ly9ibG9nLmNzZG4ubmV0L3p5MzMyNzE5Nzk0,size_16,color_FFFFFF,t_70">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -805,7 +876,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CAEACE"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1059,30 +1130,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T122"/>
   <sheetViews>
     <sheetView topLeftCell="A88" workbookViewId="0">
       <selection activeCell="E95" sqref="E95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="23.6640625" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" customWidth="1"/>
-    <col min="4" max="4" width="23.77734375" customWidth="1"/>
-    <col min="5" max="5" width="34.109375" customWidth="1"/>
-    <col min="6" max="6" width="11.44140625" customWidth="1"/>
-    <col min="7" max="7" width="28.21875" customWidth="1"/>
-    <col min="8" max="8" width="40.88671875" customWidth="1"/>
-    <col min="12" max="12" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.44140625" customWidth="1"/>
-    <col min="15" max="15" width="11.88671875" customWidth="1"/>
-    <col min="17" max="17" width="15.6640625" customWidth="1"/>
-    <col min="19" max="19" width="11.77734375" customWidth="1"/>
+    <col min="2" max="2" width="23.625" customWidth="1"/>
+    <col min="3" max="3" width="13.625" customWidth="1"/>
+    <col min="4" max="4" width="23.75" customWidth="1"/>
+    <col min="5" max="5" width="34.125" customWidth="1"/>
+    <col min="6" max="6" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="28.25" customWidth="1"/>
+    <col min="8" max="8" width="40.875" customWidth="1"/>
+    <col min="12" max="12" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5" customWidth="1"/>
+    <col min="15" max="15" width="11.875" customWidth="1"/>
+    <col min="17" max="17" width="15.625" customWidth="1"/>
+    <col min="19" max="19" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1096,25 +1167,25 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="M2" s="12" t="s">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="M2" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12" t="s">
+      <c r="N2" s="14"/>
+      <c r="O2" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12" t="s">
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12" t="s">
+      <c r="R2" s="14"/>
+      <c r="S2" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="T2" s="12"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T2" s="14"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1170,7 +1241,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1204,7 +1275,7 @@
       <c r="Q4" s="9"/>
       <c r="S4" s="9"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1222,7 +1293,7 @@
       <c r="Q5" s="9"/>
       <c r="S5" s="9"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1237,7 +1308,7 @@
       <c r="Q6" s="9"/>
       <c r="S6" s="9"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1270,13 +1341,13 @@
       <c r="Q7" s="9"/>
       <c r="S7" s="9"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="C8" s="6"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1287,7 +1358,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>7</v>
       </c>
@@ -1295,7 +1366,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>8</v>
       </c>
@@ -1303,7 +1374,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>9</v>
       </c>
@@ -1311,7 +1382,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10</v>
       </c>
@@ -1337,7 +1408,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>11</v>
       </c>
@@ -1362,24 +1433,24 @@
       <c r="H14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L14" s="12" t="s">
+      <c r="L14" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>12</v>
       </c>
       <c r="C15" s="3">
         <v>12</v>
       </c>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>13</v>
       </c>
@@ -1402,7 +1473,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>14</v>
       </c>
@@ -1419,7 +1490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>15</v>
       </c>
@@ -1433,7 +1504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>16</v>
       </c>
@@ -1456,7 +1527,7 @@
         <v>0.17209571205951846</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>17</v>
       </c>
@@ -1479,7 +1550,7 @@
         <v>0.25968436154949781</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>18</v>
       </c>
@@ -1502,12 +1573,12 @@
         <v>0.41355377523556347</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>20</v>
       </c>
@@ -1521,12 +1592,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -1540,31 +1611,31 @@
       <c r="O26" s="11"/>
       <c r="P26" s="11"/>
     </row>
-    <row r="27" spans="1:16" ht="47.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" ht="47.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>15</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="12" t="s">
         <v>21</v>
       </c>
       <c r="N27" s="11"/>
       <c r="O27" s="11"/>
       <c r="P27" s="11"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>16</v>
       </c>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
       <c r="N28" s="11"/>
       <c r="O28" s="11"/>
       <c r="P28" s="11"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>17</v>
       </c>
@@ -1572,7 +1643,7 @@
       <c r="O29" s="11"/>
       <c r="P29" s="11"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>18</v>
       </c>
@@ -1580,32 +1651,32 @@
       <c r="O30" s="11"/>
       <c r="P30" s="11"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="N31" s="11"/>
       <c r="O31" s="11"/>
       <c r="P31" s="11"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="N32" s="11"/>
       <c r="O32" s="11"/>
       <c r="P32" s="11"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="N33" s="11"/>
       <c r="O33" s="11"/>
       <c r="P33" s="11"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="N34" s="11"/>
       <c r="O34" s="11"/>
       <c r="P34" s="11"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>1</v>
       </c>
@@ -1631,11 +1702,11 @@
         <v>32</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>1</v>
       </c>
-      <c r="B43" s="15">
+      <c r="B43" s="12">
         <v>1</v>
       </c>
       <c r="D43">
@@ -1658,35 +1729,35 @@
         <v>326147</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>2</v>
       </c>
-      <c r="B44" s="15"/>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B44" s="12"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>3</v>
       </c>
-      <c r="B45" s="15"/>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B45" s="12"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>4</v>
       </c>
-      <c r="B46" s="15"/>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B46" s="12"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>5</v>
       </c>
-      <c r="B47" s="15"/>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B47" s="12"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>6</v>
       </c>
-      <c r="B48" s="15">
+      <c r="B48" s="12">
         <v>2</v>
       </c>
       <c r="D48">
@@ -1709,35 +1780,35 @@
         <v>353287</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>7</v>
       </c>
-      <c r="B49" s="15"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B49" s="12"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>8</v>
       </c>
-      <c r="B50" s="15"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B50" s="12"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>9</v>
       </c>
-      <c r="B51" s="15"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B51" s="12"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>10</v>
       </c>
-      <c r="B52" s="15"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B52" s="12"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>11</v>
       </c>
-      <c r="B53" s="15">
+      <c r="B53" s="12">
         <v>3</v>
       </c>
       <c r="D53">
@@ -1760,35 +1831,35 @@
         <v>394674</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>12</v>
       </c>
-      <c r="B54" s="15"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B54" s="12"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>13</v>
       </c>
-      <c r="B55" s="15"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B55" s="12"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>14</v>
       </c>
-      <c r="B56" s="15"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B56" s="12"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>15</v>
       </c>
-      <c r="B57" s="15"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B57" s="12"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>16</v>
       </c>
-      <c r="B58" s="15">
+      <c r="B58" s="12">
         <v>4</v>
       </c>
       <c r="D58">
@@ -1811,36 +1882,36 @@
         <v>461247</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>17</v>
       </c>
-      <c r="B59" s="15"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B59" s="12"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>18</v>
       </c>
-      <c r="B60" s="15"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B60" s="12"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>19</v>
       </c>
-      <c r="B61" s="15"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B61" s="12"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>20</v>
       </c>
-      <c r="B62" s="15"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B62" s="12"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>39</v>
       </c>
@@ -1851,39 +1922,39 @@
         <v>44</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E73" s="14" t="s">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E73" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="F73" s="15"/>
-      <c r="G73" s="15"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E74" s="15"/>
-      <c r="F74" s="15"/>
-      <c r="G74" s="15"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F73" s="12"/>
+      <c r="G73" s="12"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E74" s="12"/>
+      <c r="F74" s="12"/>
+      <c r="G74" s="12"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B75" s="8" t="s">
         <v>48</v>
       </c>
@@ -1909,7 +1980,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B76" s="8" t="s">
         <v>41</v>
       </c>
@@ -1921,7 +1992,7 @@
       <c r="H76" s="8"/>
       <c r="I76" s="8"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B77" s="8">
         <v>1</v>
       </c>
@@ -1946,7 +2017,7 @@
         <v>1693076</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B78" s="8">
         <v>2</v>
       </c>
@@ -1971,7 +2042,7 @@
         <v>1692392</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B79" s="8">
         <v>3</v>
       </c>
@@ -1996,7 +2067,7 @@
         <v>2133563</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B80" s="8">
         <v>4</v>
       </c>
@@ -2021,7 +2092,7 @@
         <v>2132701</v>
       </c>
     </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
       <c r="D81" s="8"/>
@@ -2037,19 +2108,19 @@
         <v>76</v>
       </c>
     </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C85" s="13" t="s">
+    <row r="85" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C85" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="D85" s="14"/>
-      <c r="E85" s="14"/>
-    </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C86" s="14"/>
-      <c r="D86" s="14"/>
-      <c r="E86" s="14"/>
-    </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D85" s="16"/>
+      <c r="E85" s="16"/>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C86" s="16"/>
+      <c r="D86" s="16"/>
+      <c r="E86" s="16"/>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
         <v>52</v>
       </c>
@@ -2069,7 +2140,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
         <v>58</v>
       </c>
@@ -2089,7 +2160,7 @@
         <v>6.64</v>
       </c>
     </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
         <v>57</v>
       </c>
@@ -2109,19 +2180,19 @@
         <v>21.793299999999999</v>
       </c>
     </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D91" s="13" t="s">
+    <row r="91" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D91" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="E91" s="14"/>
-      <c r="F91" s="14"/>
-    </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D92" s="14"/>
-      <c r="E92" s="14"/>
-      <c r="F92" s="14"/>
-    </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E91" s="16"/>
+      <c r="F91" s="16"/>
+    </row>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D92" s="16"/>
+      <c r="E92" s="16"/>
+      <c r="F92" s="16"/>
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B94" s="8" t="s">
         <v>47</v>
       </c>
@@ -2141,7 +2212,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B95" s="8" t="s">
         <v>51</v>
       </c>
@@ -2165,7 +2236,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="96" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
         <v>70</v>
       </c>
@@ -2182,19 +2253,19 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="98" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D98" s="13" t="s">
+    <row r="98" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D98" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="E98" s="14"/>
-      <c r="F98" s="14"/>
-    </row>
-    <row r="99" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D99" s="14"/>
-      <c r="E99" s="14"/>
-      <c r="F99" s="14"/>
-    </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E98" s="16"/>
+      <c r="F98" s="16"/>
+    </row>
+    <row r="99" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D99" s="16"/>
+      <c r="E99" s="16"/>
+      <c r="F99" s="16"/>
+    </row>
+    <row r="101" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B101" s="8" t="s">
         <v>47</v>
       </c>
@@ -2214,7 +2285,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B102" s="8" t="s">
         <v>51</v>
       </c>
@@ -2238,19 +2309,19 @@
         <v>63</v>
       </c>
     </row>
-    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D104" s="13" t="s">
+    <row r="104" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D104" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="E104" s="14"/>
-      <c r="F104" s="14"/>
-    </row>
-    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D105" s="14"/>
-      <c r="E105" s="14"/>
-      <c r="F105" s="14"/>
-    </row>
-    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E104" s="16"/>
+      <c r="F104" s="16"/>
+    </row>
+    <row r="105" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D105" s="16"/>
+      <c r="E105" s="16"/>
+      <c r="F105" s="16"/>
+    </row>
+    <row r="107" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B107" s="8" t="s">
         <v>47</v>
       </c>
@@ -2270,7 +2341,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="108" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B108" s="8" t="s">
         <v>51</v>
       </c>
@@ -2294,19 +2365,19 @@
         <v>67</v>
       </c>
     </row>
-    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D110" s="13" t="s">
+    <row r="110" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D110" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="E110" s="14"/>
-      <c r="F110" s="14"/>
-    </row>
-    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D111" s="14"/>
-      <c r="E111" s="14"/>
-      <c r="F111" s="14"/>
-    </row>
-    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E110" s="16"/>
+      <c r="F110" s="16"/>
+    </row>
+    <row r="111" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D111" s="16"/>
+      <c r="E111" s="16"/>
+      <c r="F111" s="16"/>
+    </row>
+    <row r="113" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B113" s="8" t="s">
         <v>47</v>
       </c>
@@ -2326,7 +2397,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="114" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B114" s="8" t="s">
         <v>51</v>
       </c>
@@ -2350,19 +2421,19 @@
         <v>68</v>
       </c>
     </row>
-    <row r="116" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D116" s="13" t="s">
+    <row r="116" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D116" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="E116" s="14"/>
-      <c r="F116" s="14"/>
-    </row>
-    <row r="117" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D117" s="14"/>
-      <c r="E117" s="14"/>
-      <c r="F117" s="14"/>
-    </row>
-    <row r="119" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E116" s="16"/>
+      <c r="F116" s="16"/>
+    </row>
+    <row r="117" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D117" s="16"/>
+      <c r="E117" s="16"/>
+      <c r="F117" s="16"/>
+    </row>
+    <row r="119" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B119" s="8" t="s">
         <v>47</v>
       </c>
@@ -2382,7 +2453,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="120" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B120" s="8" t="s">
         <v>51</v>
       </c>
@@ -2406,7 +2477,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="122" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:8" x14ac:dyDescent="0.2">
       <c r="G122">
         <f>SUM(G95,G102,G108,G114,G120)</f>
         <v>197263550</v>
@@ -2417,11 +2488,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B43:B47"/>
-    <mergeCell ref="B48:B52"/>
-    <mergeCell ref="B53:B57"/>
-    <mergeCell ref="B58:B62"/>
-    <mergeCell ref="B27:B28"/>
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="L14:N15"/>
     <mergeCell ref="D110:F111"/>
@@ -2435,6 +2501,11 @@
     <mergeCell ref="D98:F99"/>
     <mergeCell ref="D104:F105"/>
     <mergeCell ref="C27:C28"/>
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="B48:B52"/>
+    <mergeCell ref="B53:B57"/>
+    <mergeCell ref="B58:B62"/>
+    <mergeCell ref="B27:B28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2444,22 +2515,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="19.77734375" customWidth="1"/>
-    <col min="4" max="4" width="19.21875" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.75" customWidth="1"/>
+    <col min="4" max="4" width="19.25" customWidth="1"/>
+    <col min="7" max="7" width="11.625" customWidth="1"/>
     <col min="8" max="8" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
         <v>85</v>
       </c>
@@ -2470,7 +2541,7 @@
       <c r="F1" s="17"/>
       <c r="G1" s="17"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="17"/>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
@@ -2479,7 +2550,7 @@
       <c r="F2" s="17"/>
       <c r="G2" s="17"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="17"/>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
@@ -2488,7 +2559,7 @@
       <c r="F3" s="17"/>
       <c r="G3" s="17"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>91</v>
       </c>
@@ -2511,7 +2582,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>97</v>
       </c>
@@ -2525,7 +2596,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
         <v>100</v>
       </c>
@@ -2536,7 +2607,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
         <v>101</v>
       </c>
@@ -2547,7 +2618,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
         <v>102</v>
       </c>
@@ -2558,7 +2629,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>86</v>
       </c>
@@ -2575,7 +2646,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
         <v>87</v>
       </c>
@@ -2592,7 +2663,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
         <v>96</v>
       </c>
@@ -2603,7 +2674,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>98</v>
       </c>
@@ -2617,7 +2688,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
         <v>87</v>
       </c>
@@ -2628,7 +2699,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
         <v>96</v>
       </c>
@@ -2639,7 +2710,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>103</v>
       </c>
@@ -2650,7 +2721,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>107</v>
       </c>
@@ -2661,7 +2732,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
         <v>109</v>
       </c>
@@ -2669,7 +2740,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
         <v>126</v>
       </c>
@@ -2680,12 +2751,12 @@
         <v>121</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B22" s="6"/>
       <c r="C22" t="s">
         <v>112</v>
@@ -2700,7 +2771,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
         <v>113</v>
       </c>
@@ -2710,8 +2781,11 @@
       <c r="E23">
         <v>90</v>
       </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G23" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
         <v>114</v>
       </c>
@@ -2728,7 +2802,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
         <v>115</v>
       </c>
@@ -2748,7 +2822,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B26" s="6"/>
       <c r="C26" t="s">
         <v>116</v>
@@ -2763,7 +2837,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
         <v>117</v>
       </c>
@@ -2783,7 +2857,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
         <v>118</v>
       </c>
@@ -2803,7 +2877,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
         <v>119</v>
       </c>
@@ -2811,7 +2885,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
         <v>120</v>
       </c>

--- a/record.xlsx
+++ b/record.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\taiwan\map-download-record\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\maptiledownload\map-download-record\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17FF6C3E-DF99-4C76-9C65-07754A522315}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="139">
   <si>
     <t>中国分20块</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -537,10 +538,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>破损，需重新下载</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>76.5G</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -558,13 +555,45 @@
   </si>
   <si>
     <t>115G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bbox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>153 G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lsv下载，非视图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否已导出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还在陆鹏电脑上下载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好像已经移到服务器上了？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -723,74 +752,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -822,7 +783,7 @@
         <xdr:cNvPr id="4" name="图片 3" descr="https://img-blog.csdnimg.cn/20190301111203497.png?x-oss-process=image/watermark,type_ZmFuZ3poZW5naGVpdGk,shadow_10,text_aHR0cHM6Ly9ibG9nLmNzZG4ubmV0L3p5MzMyNzE5Nzk0,size_16,color_FFFFFF,t_70">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -876,7 +837,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CAEACE"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1130,30 +1091,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T122"/>
   <sheetViews>
     <sheetView topLeftCell="A88" workbookViewId="0">
       <selection activeCell="E95" sqref="E95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.625" customWidth="1"/>
-    <col min="3" max="3" width="13.625" customWidth="1"/>
-    <col min="4" max="4" width="23.75" customWidth="1"/>
-    <col min="5" max="5" width="34.125" customWidth="1"/>
-    <col min="6" max="6" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="28.25" customWidth="1"/>
-    <col min="8" max="8" width="40.875" customWidth="1"/>
-    <col min="12" max="12" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.5" customWidth="1"/>
-    <col min="15" max="15" width="11.875" customWidth="1"/>
-    <col min="17" max="17" width="15.625" customWidth="1"/>
-    <col min="19" max="19" width="11.75" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="23.77734375" customWidth="1"/>
+    <col min="5" max="5" width="34.109375" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" customWidth="1"/>
+    <col min="7" max="7" width="28.21875" customWidth="1"/>
+    <col min="8" max="8" width="40.88671875" customWidth="1"/>
+    <col min="12" max="12" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.44140625" customWidth="1"/>
+    <col min="15" max="15" width="11.88671875" customWidth="1"/>
+    <col min="17" max="17" width="15.6640625" customWidth="1"/>
+    <col min="19" max="19" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1167,7 +1128,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="M2" s="14" t="s">
         <v>77</v>
       </c>
@@ -1185,7 +1146,7 @@
       </c>
       <c r="T2" s="14"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1241,7 +1202,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1275,7 +1236,7 @@
       <c r="Q4" s="9"/>
       <c r="S4" s="9"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1293,7 +1254,7 @@
       <c r="Q5" s="9"/>
       <c r="S5" s="9"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1308,7 +1269,7 @@
       <c r="Q6" s="9"/>
       <c r="S6" s="9"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1341,13 +1302,13 @@
       <c r="Q7" s="9"/>
       <c r="S7" s="9"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="C8" s="6"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1358,7 +1319,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -1366,7 +1327,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
@@ -1374,7 +1335,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9</v>
       </c>
@@ -1382,7 +1343,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10</v>
       </c>
@@ -1408,7 +1369,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>11</v>
       </c>
@@ -1439,7 +1400,7 @@
       <c r="M14" s="14"/>
       <c r="N14" s="14"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12</v>
       </c>
@@ -1450,7 +1411,7 @@
       <c r="M15" s="14"/>
       <c r="N15" s="14"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>13</v>
       </c>
@@ -1473,7 +1434,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>14</v>
       </c>
@@ -1490,7 +1451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>15</v>
       </c>
@@ -1504,7 +1465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>16</v>
       </c>
@@ -1527,7 +1488,7 @@
         <v>0.17209571205951846</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>17</v>
       </c>
@@ -1550,7 +1511,7 @@
         <v>0.25968436154949781</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>18</v>
       </c>
@@ -1573,12 +1534,12 @@
         <v>0.41355377523556347</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>20</v>
       </c>
@@ -1592,12 +1553,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -1611,7 +1572,7 @@
       <c r="O26" s="11"/>
       <c r="P26" s="11"/>
     </row>
-    <row r="27" spans="1:16" ht="47.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" ht="47.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>15</v>
       </c>
@@ -1625,7 +1586,7 @@
       <c r="O27" s="11"/>
       <c r="P27" s="11"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>16</v>
       </c>
@@ -1635,7 +1596,7 @@
       <c r="O28" s="11"/>
       <c r="P28" s="11"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>17</v>
       </c>
@@ -1643,7 +1604,7 @@
       <c r="O29" s="11"/>
       <c r="P29" s="11"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>18</v>
       </c>
@@ -1651,32 +1612,32 @@
       <c r="O30" s="11"/>
       <c r="P30" s="11"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="N31" s="11"/>
       <c r="O31" s="11"/>
       <c r="P31" s="11"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="N32" s="11"/>
       <c r="O32" s="11"/>
       <c r="P32" s="11"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="N33" s="11"/>
       <c r="O33" s="11"/>
       <c r="P33" s="11"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="N34" s="11"/>
       <c r="O34" s="11"/>
       <c r="P34" s="11"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>1</v>
       </c>
@@ -1702,7 +1663,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1</v>
       </c>
@@ -1729,31 +1690,31 @@
         <v>326147</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2</v>
       </c>
       <c r="B44" s="12"/>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>3</v>
       </c>
       <c r="B45" s="12"/>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>4</v>
       </c>
       <c r="B46" s="12"/>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>5</v>
       </c>
       <c r="B47" s="12"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>6</v>
       </c>
@@ -1780,31 +1741,31 @@
         <v>353287</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>7</v>
       </c>
       <c r="B49" s="12"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>8</v>
       </c>
       <c r="B50" s="12"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>9</v>
       </c>
       <c r="B51" s="12"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>10</v>
       </c>
       <c r="B52" s="12"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>11</v>
       </c>
@@ -1831,31 +1792,31 @@
         <v>394674</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>12</v>
       </c>
       <c r="B54" s="12"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>13</v>
       </c>
       <c r="B55" s="12"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>14</v>
       </c>
       <c r="B56" s="12"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>15</v>
       </c>
       <c r="B57" s="12"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>16</v>
       </c>
@@ -1882,36 +1843,36 @@
         <v>461247</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>17</v>
       </c>
       <c r="B59" s="12"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>18</v>
       </c>
       <c r="B60" s="12"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>19</v>
       </c>
       <c r="B61" s="12"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>20</v>
       </c>
       <c r="B62" s="12"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>39</v>
       </c>
@@ -1922,39 +1883,39 @@
         <v>44</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E73" s="16" t="s">
         <v>45</v>
       </c>
       <c r="F73" s="12"/>
       <c r="G73" s="12"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E74" s="12"/>
       <c r="F74" s="12"/>
       <c r="G74" s="12"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B75" s="8" t="s">
         <v>48</v>
       </c>
@@ -1980,7 +1941,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B76" s="8" t="s">
         <v>41</v>
       </c>
@@ -1992,7 +1953,7 @@
       <c r="H76" s="8"/>
       <c r="I76" s="8"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B77" s="8">
         <v>1</v>
       </c>
@@ -2017,7 +1978,7 @@
         <v>1693076</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B78" s="8">
         <v>2</v>
       </c>
@@ -2042,7 +2003,7 @@
         <v>1692392</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B79" s="8">
         <v>3</v>
       </c>
@@ -2067,7 +2028,7 @@
         <v>2133563</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B80" s="8">
         <v>4</v>
       </c>
@@ -2092,7 +2053,7 @@
         <v>2132701</v>
       </c>
     </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
       <c r="D81" s="8"/>
@@ -2108,19 +2069,19 @@
         <v>76</v>
       </c>
     </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C85" s="15" t="s">
         <v>60</v>
       </c>
       <c r="D85" s="16"/>
       <c r="E85" s="16"/>
     </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C86" s="16"/>
       <c r="D86" s="16"/>
       <c r="E86" s="16"/>
     </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>52</v>
       </c>
@@ -2140,7 +2101,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>58</v>
       </c>
@@ -2160,7 +2121,7 @@
         <v>6.64</v>
       </c>
     </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>57</v>
       </c>
@@ -2180,19 +2141,19 @@
         <v>21.793299999999999</v>
       </c>
     </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D91" s="15" t="s">
         <v>46</v>
       </c>
       <c r="E91" s="16"/>
       <c r="F91" s="16"/>
     </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D92" s="16"/>
       <c r="E92" s="16"/>
       <c r="F92" s="16"/>
     </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B94" s="8" t="s">
         <v>47</v>
       </c>
@@ -2212,7 +2173,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B95" s="8" t="s">
         <v>51</v>
       </c>
@@ -2236,7 +2197,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="96" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
         <v>70</v>
       </c>
@@ -2253,19 +2214,19 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="98" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D98" s="15" t="s">
         <v>62</v>
       </c>
       <c r="E98" s="16"/>
       <c r="F98" s="16"/>
     </row>
-    <row r="99" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D99" s="16"/>
       <c r="E99" s="16"/>
       <c r="F99" s="16"/>
     </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B101" s="8" t="s">
         <v>47</v>
       </c>
@@ -2285,7 +2246,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B102" s="8" t="s">
         <v>51</v>
       </c>
@@ -2309,19 +2270,19 @@
         <v>63</v>
       </c>
     </row>
-    <row r="104" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D104" s="15" t="s">
         <v>64</v>
       </c>
       <c r="E104" s="16"/>
       <c r="F104" s="16"/>
     </row>
-    <row r="105" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D105" s="16"/>
       <c r="E105" s="16"/>
       <c r="F105" s="16"/>
     </row>
-    <row r="107" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B107" s="8" t="s">
         <v>47</v>
       </c>
@@ -2341,7 +2302,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="108" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B108" s="8" t="s">
         <v>51</v>
       </c>
@@ -2365,19 +2326,19 @@
         <v>67</v>
       </c>
     </row>
-    <row r="110" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D110" s="15" t="s">
         <v>65</v>
       </c>
       <c r="E110" s="16"/>
       <c r="F110" s="16"/>
     </row>
-    <row r="111" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D111" s="16"/>
       <c r="E111" s="16"/>
       <c r="F111" s="16"/>
     </row>
-    <row r="113" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B113" s="8" t="s">
         <v>47</v>
       </c>
@@ -2397,7 +2358,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="114" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B114" s="8" t="s">
         <v>51</v>
       </c>
@@ -2421,19 +2382,19 @@
         <v>68</v>
       </c>
     </row>
-    <row r="116" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D116" s="15" t="s">
         <v>66</v>
       </c>
       <c r="E116" s="16"/>
       <c r="F116" s="16"/>
     </row>
-    <row r="117" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D117" s="16"/>
       <c r="E117" s="16"/>
       <c r="F117" s="16"/>
     </row>
-    <row r="119" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B119" s="8" t="s">
         <v>47</v>
       </c>
@@ -2453,7 +2414,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="120" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B120" s="8" t="s">
         <v>51</v>
       </c>
@@ -2477,7 +2438,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="122" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:8" x14ac:dyDescent="0.25">
       <c r="G122">
         <f>SUM(G95,G102,G108,G114,G120)</f>
         <v>197263550</v>
@@ -2515,22 +2476,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.75" customWidth="1"/>
-    <col min="4" max="4" width="19.25" customWidth="1"/>
-    <col min="7" max="7" width="11.625" customWidth="1"/>
+    <col min="2" max="2" width="19.77734375" customWidth="1"/>
+    <col min="4" max="4" width="19.21875" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1"/>
     <col min="8" max="8" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>85</v>
       </c>
@@ -2541,7 +2502,7 @@
       <c r="F1" s="17"/>
       <c r="G1" s="17"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="17"/>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
@@ -2550,7 +2511,7 @@
       <c r="F2" s="17"/>
       <c r="G2" s="17"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="17"/>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
@@ -2559,7 +2520,7 @@
       <c r="F3" s="17"/>
       <c r="G3" s="17"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>91</v>
       </c>
@@ -2581,8 +2542,17 @@
       <c r="H4" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I4" t="s">
+        <v>131</v>
+      </c>
+      <c r="J4" t="s">
+        <v>132</v>
+      </c>
+      <c r="K4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>97</v>
       </c>
@@ -2596,7 +2566,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>100</v>
       </c>
@@ -2607,7 +2577,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>101</v>
       </c>
@@ -2618,7 +2588,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>102</v>
       </c>
@@ -2629,7 +2599,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>86</v>
       </c>
@@ -2646,7 +2616,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>87</v>
       </c>
@@ -2663,7 +2633,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>96</v>
       </c>
@@ -2674,7 +2644,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>98</v>
       </c>
@@ -2688,7 +2658,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>87</v>
       </c>
@@ -2699,7 +2669,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>96</v>
       </c>
@@ -2710,7 +2680,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>103</v>
       </c>
@@ -2721,7 +2691,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>107</v>
       </c>
@@ -2731,32 +2701,41 @@
       <c r="D18" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F18">
+        <v>6904300</v>
+      </c>
+      <c r="K18" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>109</v>
       </c>
       <c r="D19" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B20" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="K19" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>110</v>
       </c>
       <c r="D20" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C21" t="s">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C21" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="6"/>
       <c r="C22" t="s">
         <v>112</v>
@@ -2767,12 +2746,24 @@
       <c r="E22">
         <v>80</v>
       </c>
+      <c r="F22">
+        <v>7116803</v>
+      </c>
       <c r="G22" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C23" t="s">
+        <v>129</v>
+      </c>
+      <c r="I22" t="s">
+        <v>134</v>
+      </c>
+      <c r="K22" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>138</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>113</v>
       </c>
       <c r="D23" t="s">
@@ -2782,10 +2773,10 @@
         <v>90</v>
       </c>
       <c r="G23" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>114</v>
       </c>
@@ -2801,8 +2792,11 @@
       <c r="H24" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="K24" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>115</v>
       </c>
@@ -2816,13 +2810,16 @@
         <v>7362872</v>
       </c>
       <c r="G25" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H25" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="K25" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="6"/>
       <c r="C26" t="s">
         <v>116</v>
@@ -2836,8 +2833,11 @@
       <c r="H26" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="K26" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>117</v>
       </c>
@@ -2851,13 +2851,16 @@
         <v>7371043</v>
       </c>
       <c r="G27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H27" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="K27" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>118</v>
       </c>
@@ -2871,23 +2874,44 @@
         <v>7648865</v>
       </c>
       <c r="G28" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H28" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="K28" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>119</v>
       </c>
       <c r="D29" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="E29">
+        <v>75</v>
+      </c>
+      <c r="F29">
+        <v>7646696</v>
+      </c>
+      <c r="G29" t="s">
+        <v>133</v>
+      </c>
+      <c r="K29" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>120</v>
+      </c>
+      <c r="D30" t="s">
+        <v>121</v>
+      </c>
+      <c r="K30" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
